--- a/Week 1/day-5-deeper-into-formulas-and-functions/nyc-formula-function-demo.xlsx
+++ b/Week 1/day-5-deeper-into-formulas-and-functions/nyc-formula-function-demo.xlsx
@@ -103,7 +103,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -859,7 +861,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -874,7 +878,7 @@
     <col min="14" max="14" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -896,9 +900,10 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="I1" s="3"/>
       <c r="J1" s="3" t="s">
         <v>11</v>
       </c>

--- a/Week 1/day-5-deeper-into-formulas-and-functions/nyc-formula-function-demo.xlsx
+++ b/Week 1/day-5-deeper-into-formulas-and-functions/nyc-formula-function-demo.xlsx
@@ -861,9 +861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -879,25 +877,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
